--- a/documentation/data-codebook.xlsx
+++ b/documentation/data-codebook.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/465f49c4b0d242ff/ucla/21-22/s22/stats-199/drone-strikes/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C81A7E-6487-3F43-B6D2-B945E4ED3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{89C81A7E-6487-3F43-B6D2-B945E4ED3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B75A0C-363D-8043-A4B6-A1EEB3F7E9E8}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D3ECEF0D-44DF-7440-BB5E-117D741263F1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15600" activeTab="1" xr2:uid="{D3ECEF0D-44DF-7440-BB5E-117D741263F1}"/>
   </bookViews>
   <sheets>
     <sheet name="strike-data-geocode.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="approval-ratings.csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Variable</t>
   </si>
@@ -328,6 +329,39 @@
     <t>President George W. Bush: 01/20/2001 - 01/19/2009
 President Barack Obama: 01/20/2009 - 01/19/2017
 President Donald Trump: 01/20/2017 - 01/19/2021</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>disapprove</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>President in office during approval rating time period</t>
+  </si>
+  <si>
+    <t>End date of polling time range</t>
+  </si>
+  <si>
+    <t>Start date of polling time range</t>
+  </si>
+  <si>
+    <t>Percent of respondents who were unsure/no comment/no data</t>
+  </si>
+  <si>
+    <t>Percent of respondents who approved of president's performance</t>
+  </si>
+  <si>
+    <t>Percent of respondents who disapproved of president's performance</t>
   </si>
 </sst>
 </file>
@@ -693,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E434E7A-74D8-7541-916A-0D8B95B296AD}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,4 +1079,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED977AF-8582-0C40-B43E-53872F1E07BC}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>